--- a/data/trans_orig/P1411-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1411-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1FE1E52-EDF0-41CC-BB62-0B3F66FFE4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D030DCE8-789B-434C-9A9B-05B36211E9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{65E94947-D621-4176-AFAA-EDC48D4BBAEE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4526C7C-A7A2-43BB-A903-AB705C28DA2B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="329">
   <si>
     <t>Población con diagnóstico de infarto de miocardio en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -103,868 +103,895 @@
     <t>1,45%</t>
   </si>
   <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de infarto de miocardio en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de infarto de miocardio en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de infarto de miocardio en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de infarto de miocardio en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
   </si>
   <si>
     <t>0,23%</t>
@@ -1409,7 +1436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B3A91A-D16A-4ED2-99F8-B1190A891D51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810307FB-749E-41A9-AF9F-4DC5BA9AFBF0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1784,10 +1811,10 @@
         <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -1796,10 +1823,10 @@
         <v>12680</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>27</v>
@@ -1853,7 +1880,7 @@
         <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,13 +1895,13 @@
         <v>505527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>480</v>
@@ -1883,13 +1910,13 @@
         <v>523765</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M11" s="7">
         <v>952</v>
@@ -1898,18 +1925,18 @@
         <v>1029292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1927,7 +1954,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1942,7 +1969,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1957,7 +1984,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1999,13 @@
         <v>5072</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1987,13 +2014,13 @@
         <v>2109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2002,13 +2029,13 @@
         <v>7181</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,13 +2050,13 @@
         <v>318974</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H14" s="7">
         <v>315</v>
@@ -2038,13 +2065,13 @@
         <v>338911</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>629</v>
@@ -2053,13 +2080,13 @@
         <v>657885</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,13 +2101,13 @@
         <v>324046</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>317</v>
@@ -2089,13 +2116,13 @@
         <v>341020</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>636</v>
@@ -2104,18 +2131,18 @@
         <v>665066</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2133,7 +2160,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2148,7 +2175,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2163,7 +2190,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,13 +2205,13 @@
         <v>20925</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2193,13 +2220,13 @@
         <v>11370</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -2208,13 +2235,13 @@
         <v>32295</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,13 +2256,13 @@
         <v>647795</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H18" s="7">
         <v>616</v>
@@ -2244,13 +2271,13 @@
         <v>664826</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M18" s="7">
         <v>1224</v>
@@ -2259,13 +2286,13 @@
         <v>1312621</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,13 +2307,13 @@
         <v>668720</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" s="7">
         <v>627</v>
@@ -2295,13 +2322,13 @@
         <v>676196</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M19" s="7">
         <v>1253</v>
@@ -2310,18 +2337,18 @@
         <v>1344916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2339,7 +2366,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2354,7 +2381,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2369,7 +2396,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2411,13 @@
         <v>8854</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2399,13 +2426,13 @@
         <v>4092</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -2414,13 +2441,13 @@
         <v>12946</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,13 +2462,13 @@
         <v>203764</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H22" s="7">
         <v>208</v>
@@ -2450,13 +2477,13 @@
         <v>215499</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M22" s="7">
         <v>396</v>
@@ -2465,13 +2492,13 @@
         <v>419263</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,13 +2513,13 @@
         <v>212618</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23" s="7">
         <v>212</v>
@@ -2501,13 +2528,13 @@
         <v>219591</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M23" s="7">
         <v>408</v>
@@ -2516,18 +2543,18 @@
         <v>432209</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2545,7 +2572,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2560,7 +2587,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2575,7 +2602,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2617,13 @@
         <v>6233</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2605,13 +2632,13 @@
         <v>1087</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2620,13 +2647,13 @@
         <v>7321</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,13 +2668,13 @@
         <v>267748</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>267</v>
@@ -2656,13 +2683,13 @@
         <v>277009</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M26" s="7">
         <v>522</v>
@@ -2671,13 +2698,13 @@
         <v>544756</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,13 +2719,13 @@
         <v>273981</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27" s="7">
         <v>268</v>
@@ -2707,13 +2734,13 @@
         <v>278096</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M27" s="7">
         <v>529</v>
@@ -2722,18 +2749,18 @@
         <v>552077</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2751,7 +2778,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2766,7 +2793,7 @@
         <v>16</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2781,7 +2808,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,13 +2823,13 @@
         <v>11136</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -2811,13 +2838,13 @@
         <v>5424</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -2826,13 +2853,13 @@
         <v>16560</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,13 +2874,13 @@
         <v>651652</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H30" s="7">
         <v>631</v>
@@ -2862,13 +2889,13 @@
         <v>688429</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M30" s="7">
         <v>1238</v>
@@ -2877,13 +2904,13 @@
         <v>1340081</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,13 +2925,13 @@
         <v>662788</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H31" s="7">
         <v>636</v>
@@ -2913,13 +2940,13 @@
         <v>693853</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M31" s="7">
         <v>1254</v>
@@ -2928,18 +2955,18 @@
         <v>1356641</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2957,7 +2984,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2972,7 +2999,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2987,7 +3014,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,13 +3029,13 @@
         <v>11110</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -3017,13 +3044,13 @@
         <v>8720</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="M33" s="7">
         <v>17</v>
@@ -3032,13 +3059,13 @@
         <v>19829</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,13 +3080,13 @@
         <v>767988</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H34" s="7">
         <v>747</v>
@@ -3068,13 +3095,13 @@
         <v>812675</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M34" s="7">
         <v>1455</v>
@@ -3083,13 +3110,13 @@
         <v>1580664</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3131,13 @@
         <v>779098</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H35" s="7">
         <v>755</v>
@@ -3119,13 +3146,13 @@
         <v>821395</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M35" s="7">
         <v>1472</v>
@@ -3134,13 +3161,13 @@
         <v>1600493</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,7 +3190,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3178,7 +3205,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3193,7 +3220,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,13 +3235,13 @@
         <v>70636</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H37" s="7">
         <v>36</v>
@@ -3223,13 +3250,13 @@
         <v>38176</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="M37" s="7">
         <v>100</v>
@@ -3238,13 +3265,13 @@
         <v>108813</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3286,13 @@
         <v>3356143</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H38" s="7">
         <v>3259</v>
@@ -3274,13 +3301,13 @@
         <v>3515740</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M38" s="7">
         <v>6404</v>
@@ -3289,13 +3316,13 @@
         <v>6871881</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3337,13 @@
         <v>3426779</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H39" s="7">
         <v>3295</v>
@@ -3325,13 +3352,13 @@
         <v>3553916</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M39" s="7">
         <v>6504</v>
@@ -3340,18 +3367,18 @@
         <v>6980694</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3375,7 +3402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6197CE8-BADE-44DC-9337-16E0DC040E80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182C4421-E38C-4802-807B-4FF85C7085AA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3392,7 +3419,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3505,7 +3532,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3520,7 +3547,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3535,7 +3562,7 @@
         <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3577,13 @@
         <v>4866</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3565,13 +3592,13 @@
         <v>4524</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -3580,13 +3607,13 @@
         <v>9391</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3628,13 @@
         <v>288895</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H6" s="7">
         <v>273</v>
@@ -3616,13 +3643,13 @@
         <v>284179</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M6" s="7">
         <v>534</v>
@@ -3631,13 +3658,13 @@
         <v>573073</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3679,13 @@
         <v>293761</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>277</v>
@@ -3667,13 +3694,13 @@
         <v>288703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>543</v>
@@ -3682,13 +3709,13 @@
         <v>582464</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3783,13 @@
         <v>12548</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -3771,13 +3798,13 @@
         <v>7900</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -3786,13 +3813,13 @@
         <v>20448</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3834,13 @@
         <v>490027</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>477</v>
@@ -3822,13 +3849,13 @@
         <v>515184</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>68</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="M10" s="7">
         <v>940</v>
@@ -3858,13 +3885,13 @@
         <v>502575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>484</v>
@@ -3873,13 +3900,13 @@
         <v>523084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M11" s="7">
         <v>959</v>
@@ -3888,18 +3915,18 @@
         <v>1025659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3917,7 +3944,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3947,7 +3974,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,10 +3992,10 @@
         <v>199</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3977,13 +4004,13 @@
         <v>902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3992,13 +4019,13 @@
         <v>5838</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +4040,13 @@
         <v>313629</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>331</v>
@@ -4028,13 +4055,13 @@
         <v>335407</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>660</v>
@@ -4043,13 +4070,13 @@
         <v>649036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,13 +4091,13 @@
         <v>318565</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>332</v>
@@ -4079,13 +4106,13 @@
         <v>336309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>667</v>
@@ -4094,18 +4121,18 @@
         <v>654874</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4123,23 +4150,23 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="M16" s="7">
         <v>0</v>
       </c>
@@ -4153,7 +4180,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4195,13 @@
         <v>6424</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4183,13 +4210,13 @@
         <v>974</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4198,10 +4225,10 @@
         <v>7398</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>216</v>
@@ -4225,7 +4252,7 @@
         <v>218</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="H18" s="7">
         <v>357</v>
@@ -4234,13 +4261,13 @@
         <v>386309</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M18" s="7">
         <v>704</v>
@@ -4249,13 +4276,13 @@
         <v>749849</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4297,13 @@
         <v>369964</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" s="7">
         <v>358</v>
@@ -4285,13 +4312,13 @@
         <v>387283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M19" s="7">
         <v>712</v>
@@ -4300,18 +4327,18 @@
         <v>757247</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4329,7 +4356,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4344,7 +4371,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4359,7 +4386,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,13 +4401,13 @@
         <v>3725</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -4389,13 +4416,13 @@
         <v>6988</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -4404,13 +4431,13 @@
         <v>10713</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4452,13 @@
         <v>207496</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H22" s="7">
         <v>217</v>
@@ -4440,13 +4467,13 @@
         <v>211599</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>425</v>
@@ -4455,13 +4482,13 @@
         <v>419095</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4503,13 @@
         <v>211221</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23" s="7">
         <v>223</v>
@@ -4491,13 +4518,13 @@
         <v>218587</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M23" s="7">
         <v>435</v>
@@ -4506,18 +4533,18 @@
         <v>429808</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4535,7 +4562,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4550,7 +4577,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4565,7 +4592,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>24</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4607,13 @@
         <v>5624</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -4595,13 +4622,13 @@
         <v>8950</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>246</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -4610,13 +4637,13 @@
         <v>14574</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4658,13 @@
         <v>257499</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H26" s="7">
         <v>255</v>
@@ -4646,13 +4673,13 @@
         <v>264165</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="M26" s="7">
         <v>508</v>
@@ -4661,13 +4688,13 @@
         <v>521664</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4709,13 @@
         <v>263123</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27" s="7">
         <v>263</v>
@@ -4697,13 +4724,13 @@
         <v>273115</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M27" s="7">
         <v>522</v>
@@ -4712,18 +4739,18 @@
         <v>536238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4741,7 +4768,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4756,7 +4783,7 @@
         <v>16</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4771,7 +4798,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4813,13 @@
         <v>10017</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>245</v>
+        <v>88</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -4801,13 +4828,13 @@
         <v>4767</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -4816,13 +4843,13 @@
         <v>14784</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4864,13 @@
         <v>646541</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="H30" s="7">
         <v>642</v>
@@ -4852,13 +4879,13 @@
         <v>686527</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M30" s="7">
         <v>1213</v>
@@ -4867,13 +4894,13 @@
         <v>1333068</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>268</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4915,13 @@
         <v>656558</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H31" s="7">
         <v>646</v>
@@ -4903,13 +4930,13 @@
         <v>691294</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M31" s="7">
         <v>1226</v>
@@ -4918,18 +4945,18 @@
         <v>1347852</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4947,7 +4974,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4962,7 +4989,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4977,7 +5004,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +5019,13 @@
         <v>18634</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -5007,13 +5034,13 @@
         <v>9547</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M33" s="7">
         <v>26</v>
@@ -5022,13 +5049,13 @@
         <v>28181</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5070,13 @@
         <v>759949</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="H34" s="7">
         <v>747</v>
@@ -5058,13 +5085,13 @@
         <v>816620</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>280</v>
+        <v>148</v>
       </c>
       <c r="M34" s="7">
         <v>1479</v>
@@ -5073,13 +5100,13 @@
         <v>1576569</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5121,13 @@
         <v>778583</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H35" s="7">
         <v>755</v>
@@ -5109,13 +5136,13 @@
         <v>826167</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M35" s="7">
         <v>1505</v>
@@ -5124,13 +5151,13 @@
         <v>1604750</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,7 +5180,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5168,7 +5195,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5183,7 +5210,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5225,13 @@
         <v>66775</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="H37" s="7">
         <v>39</v>
@@ -5213,13 +5240,13 @@
         <v>44551</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="M37" s="7">
         <v>106</v>
@@ -5228,13 +5255,13 @@
         <v>111325</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>287</v>
+        <v>108</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,13 +5276,13 @@
         <v>3327575</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>189</v>
+        <v>294</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="H38" s="7">
         <v>3299</v>
@@ -5264,13 +5291,13 @@
         <v>3499991</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M38" s="7">
         <v>6463</v>
@@ -5279,13 +5306,13 @@
         <v>6827567</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>294</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,13 +5327,13 @@
         <v>3394350</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H39" s="7">
         <v>3338</v>
@@ -5315,13 +5342,13 @@
         <v>3544542</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M39" s="7">
         <v>6569</v>
@@ -5330,18 +5357,18 @@
         <v>6938892</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5365,7 +5392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E8335B-366B-4F40-8AED-7CBA3BE3D23F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850B071A-C06A-4614-88D7-7FAB64E75D8A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5382,7 +5409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5489,13 +5516,13 @@
         <v>260298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" s="7">
         <v>538</v>
@@ -5504,13 +5531,13 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" s="7">
         <v>869</v>
@@ -5519,13 +5546,13 @@
         <v>531700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,7 +5588,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5576,7 +5603,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,7 +5639,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5627,7 +5654,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5669,13 @@
         <v>260298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>538</v>
@@ -5657,13 +5684,13 @@
         <v>271403</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>869</v>
@@ -5672,13 +5699,13 @@
         <v>531700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5722,13 @@
         <v>519297</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>234</v>
+        <v>304</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>717</v>
@@ -5710,13 +5737,13 @@
         <v>554566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
         <v>1099</v>
@@ -5725,13 +5752,13 @@
         <v>1073864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,7 +5779,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5767,7 +5794,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5782,7 +5809,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,7 +5830,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5818,7 +5845,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5833,7 +5860,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5875,13 @@
         <v>519297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>717</v>
@@ -5863,13 +5890,13 @@
         <v>554566</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M11" s="7">
         <v>1099</v>
@@ -5878,18 +5905,18 @@
         <v>1073864</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5901,13 +5928,13 @@
         <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
@@ -5916,13 +5943,13 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
@@ -5931,13 +5958,13 @@
         <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,7 +5985,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5973,7 +6000,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5988,7 +6015,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,7 +6036,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6024,7 +6051,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6039,7 +6066,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,13 +6081,13 @@
         <v>322240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>536</v>
@@ -6069,13 +6096,13 @@
         <v>373284</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>896</v>
@@ -6084,18 +6111,18 @@
         <v>695524</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6107,13 +6134,13 @@
         <v>322240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>599</v>
@@ -6122,13 +6149,13 @@
         <v>428556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>891</v>
@@ -6137,13 +6164,13 @@
         <v>750796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,7 +6191,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>184</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6179,7 +6206,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6194,7 +6221,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,7 +6242,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>184</v>
+        <v>313</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6230,7 +6257,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6245,7 +6272,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,13 +6287,13 @@
         <v>322240</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" s="7">
         <v>599</v>
@@ -6275,13 +6302,13 @@
         <v>428556</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M19" s="7">
         <v>891</v>
@@ -6290,18 +6317,18 @@
         <v>750796</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6313,13 +6340,13 @@
         <v>196748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H20" s="7">
         <v>495</v>
@@ -6328,13 +6355,13 @@
         <v>259513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M20" s="7">
         <v>774</v>
@@ -6343,13 +6370,13 @@
         <v>456260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,7 +6397,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6385,7 +6412,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6400,7 +6427,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,7 +6448,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6436,7 +6463,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6451,7 +6478,7 @@
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,13 +6493,13 @@
         <v>196748</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23" s="7">
         <v>495</v>
@@ -6481,13 +6508,13 @@
         <v>259513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M23" s="7">
         <v>774</v>
@@ -6496,18 +6523,18 @@
         <v>456260</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6519,13 +6546,13 @@
         <v>277223</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>145</v>
+        <v>315</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H24" s="7">
         <v>460</v>
@@ -6534,13 +6561,13 @@
         <v>275622</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>306</v>
+        <v>181</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M24" s="7">
         <v>831</v>
@@ -6549,13 +6576,13 @@
         <v>552845</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,7 +6603,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>137</v>
+        <v>317</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6591,7 +6618,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6606,7 +6633,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,7 +6654,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>137</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6642,7 +6669,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6657,7 +6684,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,13 +6699,13 @@
         <v>277223</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27" s="7">
         <v>460</v>
@@ -6687,13 +6714,13 @@
         <v>275622</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M27" s="7">
         <v>831</v>
@@ -6702,18 +6729,18 @@
         <v>552845</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6725,13 +6752,13 @@
         <v>627754</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H28" s="7">
         <v>960</v>
@@ -6740,13 +6767,13 @@
         <v>804203</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M28" s="7">
         <v>1559</v>
@@ -6755,13 +6782,13 @@
         <v>1431957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6782,7 +6809,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6812,7 +6839,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6833,7 +6860,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6863,7 +6890,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,13 +6905,13 @@
         <v>627754</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H31" s="7">
         <v>960</v>
@@ -6893,13 +6920,13 @@
         <v>804203</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M31" s="7">
         <v>1559</v>
@@ -6908,18 +6935,18 @@
         <v>1431957</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6931,13 +6958,13 @@
         <v>859428</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H32" s="7">
         <v>1062</v>
@@ -6946,13 +6973,13 @@
         <v>868434</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M32" s="7">
         <v>1824</v>
@@ -6961,13 +6988,13 @@
         <v>1727862</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6988,7 +7015,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -7003,7 +7030,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -7018,7 +7045,7 @@
         <v>16</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,7 +7066,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7054,7 +7081,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -7069,7 +7096,7 @@
         <v>16</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7084,13 +7111,13 @@
         <v>859428</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H35" s="7">
         <v>1062</v>
@@ -7099,13 +7126,13 @@
         <v>868434</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M35" s="7">
         <v>1824</v>
@@ -7114,13 +7141,13 @@
         <v>1727862</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,13 +7164,13 @@
         <v>3385228</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H36" s="7">
         <v>5367</v>
@@ -7152,28 +7179,28 @@
         <v>3835581</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M36" s="7">
         <v>8743</v>
       </c>
       <c r="N36" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,7 +7221,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7209,7 +7236,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7224,7 +7251,7 @@
         <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7245,7 +7272,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7260,7 +7287,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7275,7 +7302,7 @@
         <v>16</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,13 +7317,13 @@
         <v>3385228</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H39" s="7">
         <v>5367</v>
@@ -7305,33 +7332,33 @@
         <v>3835581</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M39" s="7">
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1411-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1411-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D030DCE8-789B-434C-9A9B-05B36211E9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B88AB26-18DC-46E1-AAAF-E0D81344A6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4526C7C-A7A2-43BB-A903-AB705C28DA2B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F2C3F7A4-C8B4-4DFF-BABE-8F1B7364048A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="323">
   <si>
     <t>Población con diagnóstico de infarto de miocardio en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -106,28 +106,31 @@
     <t>0,61%</t>
   </si>
   <si>
-    <t>2,91%</t>
+    <t>2,65%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>2,3%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>97,09%</t>
+    <t>97,35%</t>
   </si>
   <si>
     <t>99,39%</t>
@@ -136,19 +139,19 @@
     <t>98,97%</t>
   </si>
   <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -166,13 +169,10 @@
     <t>1,57%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>1,08%</t>
@@ -187,13 +187,10 @@
     <t>98,43%</t>
   </si>
   <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -220,778 +217,763 @@
     <t>3,13%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de infarto de miocardio en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
   </si>
   <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>98,47%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de infarto de miocardio en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
+    <t>Población con diagnóstico de infarto de miocardio en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de infarto de miocardio en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
   </si>
   <si>
     <t>0,23%</t>
@@ -1436,7 +1418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810307FB-749E-41A9-AF9F-4DC5BA9AFBF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EF0D3B-AC59-414C-B5CA-E27DDA57A35D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1811,10 +1793,10 @@
         <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -1823,13 +1805,13 @@
         <v>12680</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1844,13 +1826,13 @@
         <v>498221</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="7">
         <v>475</v>
@@ -1859,13 +1841,13 @@
         <v>518390</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7">
         <v>940</v>
@@ -1874,13 +1856,13 @@
         <v>1016612</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1895,13 +1877,13 @@
         <v>505527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>480</v>
@@ -1910,13 +1892,13 @@
         <v>523765</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>952</v>
@@ -1925,18 +1907,18 @@
         <v>1029292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1954,7 +1936,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1969,7 +1951,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1984,7 +1966,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,10 +1981,10 @@
         <v>5072</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>43</v>
@@ -2014,7 +1996,7 @@
         <v>2109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
@@ -2056,7 +2038,7 @@
         <v>49</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H14" s="7">
         <v>315</v>
@@ -2065,13 +2047,13 @@
         <v>338911</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>629</v>
@@ -2080,13 +2062,13 @@
         <v>657885</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2083,13 @@
         <v>324046</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>317</v>
@@ -2116,13 +2098,13 @@
         <v>341020</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>636</v>
@@ -2131,18 +2113,18 @@
         <v>665066</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2160,37 +2142,37 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2187,13 @@
         <v>20925</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2220,13 +2202,13 @@
         <v>11370</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -2235,13 +2217,13 @@
         <v>32295</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2238,13 @@
         <v>647795</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H18" s="7">
         <v>616</v>
@@ -2271,13 +2253,13 @@
         <v>664826</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M18" s="7">
         <v>1224</v>
@@ -2286,13 +2268,13 @@
         <v>1312621</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,13 +2289,13 @@
         <v>668720</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>627</v>
@@ -2322,13 +2304,13 @@
         <v>676196</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>1253</v>
@@ -2337,18 +2319,18 @@
         <v>1344916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2366,37 +2348,37 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2393,13 @@
         <v>8854</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2426,13 +2408,13 @@
         <v>4092</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -2441,13 +2423,13 @@
         <v>12946</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,13 +2444,13 @@
         <v>203764</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H22" s="7">
         <v>208</v>
@@ -2477,13 +2459,13 @@
         <v>215499</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M22" s="7">
         <v>396</v>
@@ -2492,13 +2474,13 @@
         <v>419263</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,13 +2495,13 @@
         <v>212618</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23" s="7">
         <v>212</v>
@@ -2528,13 +2510,13 @@
         <v>219591</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M23" s="7">
         <v>408</v>
@@ -2543,18 +2525,18 @@
         <v>432209</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2572,7 +2554,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2587,7 +2569,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2602,7 +2584,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2599,13 @@
         <v>6233</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2632,13 +2614,13 @@
         <v>1087</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2647,13 +2629,13 @@
         <v>7321</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,13 +2650,13 @@
         <v>267748</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H26" s="7">
         <v>267</v>
@@ -2683,13 +2665,13 @@
         <v>277009</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M26" s="7">
         <v>522</v>
@@ -2698,13 +2680,13 @@
         <v>544756</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,13 +2701,13 @@
         <v>273981</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
         <v>268</v>
@@ -2734,13 +2716,13 @@
         <v>278096</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
         <v>529</v>
@@ -2749,18 +2731,18 @@
         <v>552077</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2778,37 +2760,37 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,13 +2805,13 @@
         <v>11136</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -2838,13 +2820,13 @@
         <v>5424</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -2853,13 +2835,13 @@
         <v>16560</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,13 +2856,13 @@
         <v>651652</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H30" s="7">
         <v>631</v>
@@ -2889,13 +2871,13 @@
         <v>688429</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>1238</v>
@@ -2904,13 +2886,13 @@
         <v>1340081</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2907,13 @@
         <v>662788</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H31" s="7">
         <v>636</v>
@@ -2940,13 +2922,13 @@
         <v>693853</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M31" s="7">
         <v>1254</v>
@@ -2955,18 +2937,18 @@
         <v>1356641</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2984,7 +2966,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2999,7 +2981,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3014,7 +2996,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3011,13 @@
         <v>11110</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -3044,13 +3026,13 @@
         <v>8720</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="M33" s="7">
         <v>17</v>
@@ -3059,13 +3041,13 @@
         <v>19829</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3062,13 @@
         <v>767988</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="H34" s="7">
         <v>747</v>
@@ -3095,13 +3077,13 @@
         <v>812675</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M34" s="7">
         <v>1455</v>
@@ -3110,13 +3092,13 @@
         <v>1580664</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3113,13 @@
         <v>779098</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H35" s="7">
         <v>755</v>
@@ -3146,13 +3128,13 @@
         <v>821395</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M35" s="7">
         <v>1472</v>
@@ -3161,13 +3143,13 @@
         <v>1600493</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,7 +3172,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3205,7 +3187,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3220,7 +3202,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3217,13 @@
         <v>70636</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H37" s="7">
         <v>36</v>
@@ -3250,13 +3232,13 @@
         <v>38176</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="M37" s="7">
         <v>100</v>
@@ -3265,13 +3247,13 @@
         <v>108813</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3268,13 @@
         <v>3356143</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="H38" s="7">
         <v>3259</v>
@@ -3301,13 +3283,13 @@
         <v>3515740</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M38" s="7">
         <v>6404</v>
@@ -3316,13 +3298,13 @@
         <v>6871881</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3319,13 @@
         <v>3426779</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H39" s="7">
         <v>3295</v>
@@ -3352,13 +3334,13 @@
         <v>3553916</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M39" s="7">
         <v>6504</v>
@@ -3367,18 +3349,18 @@
         <v>6980694</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3402,7 +3384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182C4421-E38C-4802-807B-4FF85C7085AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DF4520-E8DD-4861-8B4A-9C9C66CB1A2C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3419,7 +3401,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3532,37 +3514,37 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,10 +3559,10 @@
         <v>4866</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>172</v>
@@ -3592,13 +3574,13 @@
         <v>4524</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -3607,13 +3589,13 @@
         <v>9391</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3610,13 @@
         <v>288895</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H6" s="7">
         <v>273</v>
@@ -3646,10 +3628,10 @@
         <v>48</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M6" s="7">
         <v>534</v>
@@ -3658,13 +3640,13 @@
         <v>573073</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3661,13 @@
         <v>293761</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>277</v>
@@ -3694,13 +3676,13 @@
         <v>288703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>543</v>
@@ -3709,13 +3691,13 @@
         <v>582464</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3765,13 @@
         <v>12548</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -3798,13 +3780,13 @@
         <v>7900</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -3813,7 +3795,7 @@
         <v>20448</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>189</v>
@@ -3852,10 +3834,10 @@
         <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>940</v>
@@ -3864,13 +3846,13 @@
         <v>1005211</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3867,13 @@
         <v>502575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>484</v>
@@ -3900,13 +3882,13 @@
         <v>523084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>959</v>
@@ -3915,18 +3897,18 @@
         <v>1025659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3944,7 +3926,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3959,7 +3941,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3974,7 +3956,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3971,13 @@
         <v>4936</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4004,13 +3986,13 @@
         <v>902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -4019,13 +4001,13 @@
         <v>5838</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4022,13 @@
         <v>313629</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>331</v>
@@ -4055,13 +4037,13 @@
         <v>335407</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M14" s="7">
         <v>660</v>
@@ -4070,13 +4052,13 @@
         <v>649036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4073,13 @@
         <v>318565</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>332</v>
@@ -4106,13 +4088,13 @@
         <v>336309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>667</v>
@@ -4121,18 +4103,18 @@
         <v>654874</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4150,7 +4132,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4165,7 +4147,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4180,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4177,13 @@
         <v>6424</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4210,7 +4192,7 @@
         <v>974</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
@@ -4228,10 +4210,10 @@
         <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4228,13 @@
         <v>363540</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="H18" s="7">
         <v>357</v>
@@ -4261,13 +4243,13 @@
         <v>386309</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M18" s="7">
         <v>704</v>
@@ -4276,13 +4258,13 @@
         <v>749849</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4279,13 @@
         <v>369964</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>358</v>
@@ -4312,13 +4294,13 @@
         <v>387283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>712</v>
@@ -4327,18 +4309,18 @@
         <v>757247</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4356,7 +4338,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4371,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4386,7 +4368,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4383,13 @@
         <v>3725</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -4416,13 +4398,13 @@
         <v>6988</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -4431,13 +4413,13 @@
         <v>10713</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4434,13 @@
         <v>207496</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H22" s="7">
         <v>217</v>
@@ -4467,13 +4449,13 @@
         <v>211599</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>425</v>
@@ -4482,13 +4464,13 @@
         <v>419095</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4485,13 @@
         <v>211221</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23" s="7">
         <v>223</v>
@@ -4518,13 +4500,13 @@
         <v>218587</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M23" s="7">
         <v>435</v>
@@ -4533,18 +4515,18 @@
         <v>429808</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4562,7 +4544,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4577,7 +4559,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4592,7 +4574,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>241</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4589,13 @@
         <v>5624</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -4622,13 +4604,13 @@
         <v>8950</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -4637,13 +4619,13 @@
         <v>14574</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4640,13 @@
         <v>257499</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H26" s="7">
         <v>255</v>
@@ -4673,13 +4655,13 @@
         <v>264165</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M26" s="7">
         <v>508</v>
@@ -4688,13 +4670,13 @@
         <v>521664</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>259</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4691,13 @@
         <v>263123</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
         <v>263</v>
@@ -4724,13 +4706,13 @@
         <v>273115</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
         <v>522</v>
@@ -4739,18 +4721,18 @@
         <v>536238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4768,7 +4750,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4783,7 +4765,7 @@
         <v>16</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4798,7 +4780,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4795,13 @@
         <v>10017</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>88</v>
+        <v>258</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -4828,13 +4810,13 @@
         <v>4767</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -4843,13 +4825,13 @@
         <v>14784</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4846,13 @@
         <v>646541</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>98</v>
+        <v>263</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>269</v>
+        <v>141</v>
       </c>
       <c r="H30" s="7">
         <v>642</v>
@@ -4879,13 +4861,13 @@
         <v>686527</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M30" s="7">
         <v>1213</v>
@@ -4894,13 +4876,13 @@
         <v>1333068</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>50</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4897,13 @@
         <v>656558</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H31" s="7">
         <v>646</v>
@@ -4930,13 +4912,13 @@
         <v>691294</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M31" s="7">
         <v>1226</v>
@@ -4945,18 +4927,18 @@
         <v>1347852</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4974,7 +4956,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4989,7 +4971,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5004,7 +4986,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5001,13 @@
         <v>18634</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -5034,13 +5016,13 @@
         <v>9547</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="M33" s="7">
         <v>26</v>
@@ -5049,13 +5031,13 @@
         <v>28181</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>280</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5052,13 @@
         <v>759949</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="H34" s="7">
         <v>747</v>
@@ -5085,13 +5067,13 @@
         <v>816620</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M34" s="7">
         <v>1479</v>
@@ -5100,13 +5082,13 @@
         <v>1576569</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5103,13 @@
         <v>778583</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H35" s="7">
         <v>755</v>
@@ -5136,13 +5118,13 @@
         <v>826167</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M35" s="7">
         <v>1505</v>
@@ -5151,13 +5133,13 @@
         <v>1604750</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,7 +5162,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5195,7 +5177,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5210,7 +5192,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5207,13 @@
         <v>66775</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>158</v>
+        <v>280</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H37" s="7">
         <v>39</v>
@@ -5240,13 +5222,13 @@
         <v>44551</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M37" s="7">
         <v>106</v>
@@ -5255,13 +5237,13 @@
         <v>111325</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>108</v>
+        <v>285</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,13 +5258,13 @@
         <v>3327575</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>293</v>
+        <v>36</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>164</v>
+        <v>288</v>
       </c>
       <c r="H38" s="7">
         <v>3299</v>
@@ -5291,13 +5273,13 @@
         <v>3499991</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M38" s="7">
         <v>6463</v>
@@ -5306,13 +5288,13 @@
         <v>6827567</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>116</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,13 +5309,13 @@
         <v>3394350</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H39" s="7">
         <v>3338</v>
@@ -5342,13 +5324,13 @@
         <v>3544542</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M39" s="7">
         <v>6569</v>
@@ -5357,18 +5339,18 @@
         <v>6938892</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5392,7 +5374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850B071A-C06A-4614-88D7-7FAB64E75D8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49464A76-D221-4230-9D9E-F32355EF232F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5409,7 +5391,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5516,13 +5498,13 @@
         <v>260298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="7">
         <v>538</v>
@@ -5531,13 +5513,13 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M4" s="7">
         <v>869</v>
@@ -5546,13 +5528,13 @@
         <v>531700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,7 +5555,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5588,7 +5570,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5603,7 +5585,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,7 +5606,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5639,7 +5621,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5654,7 +5636,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5651,13 @@
         <v>260298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>538</v>
@@ -5684,13 +5666,13 @@
         <v>271403</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>869</v>
@@ -5699,13 +5681,13 @@
         <v>531700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5704,13 @@
         <v>519297</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>304</v>
+        <v>234</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>717</v>
@@ -5737,13 +5719,13 @@
         <v>554566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>1099</v>
@@ -5752,13 +5734,13 @@
         <v>1073864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,7 +5761,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>306</v>
+        <v>225</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5794,7 +5776,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5809,7 +5791,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,7 +5812,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>306</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5845,7 +5827,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5860,7 +5842,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,13 +5857,13 @@
         <v>519297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>717</v>
@@ -5890,13 +5872,13 @@
         <v>554566</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>1099</v>
@@ -5905,18 +5887,18 @@
         <v>1073864</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5928,13 +5910,13 @@
         <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
@@ -5943,13 +5925,13 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
@@ -5958,13 +5940,13 @@
         <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,7 +5967,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6000,7 +5982,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6015,7 +5997,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,7 +6018,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6051,7 +6033,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6066,7 +6048,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,13 +6063,13 @@
         <v>322240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>536</v>
@@ -6096,13 +6078,13 @@
         <v>373284</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>896</v>
@@ -6111,18 +6093,18 @@
         <v>695524</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6134,13 +6116,13 @@
         <v>322240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" s="7">
         <v>599</v>
@@ -6149,13 +6131,13 @@
         <v>428556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M16" s="7">
         <v>891</v>
@@ -6164,13 +6146,13 @@
         <v>750796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,7 +6173,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6206,7 +6188,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6221,7 +6203,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6242,7 +6224,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6257,7 +6239,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6272,7 +6254,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6269,13 @@
         <v>322240</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>599</v>
@@ -6302,13 +6284,13 @@
         <v>428556</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>891</v>
@@ -6317,18 +6299,18 @@
         <v>750796</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6340,13 +6322,13 @@
         <v>196748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20" s="7">
         <v>495</v>
@@ -6355,13 +6337,13 @@
         <v>259513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M20" s="7">
         <v>774</v>
@@ -6370,13 +6352,13 @@
         <v>456260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,7 +6379,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6412,7 +6394,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6427,7 +6409,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,7 +6430,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6463,7 +6445,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6478,7 +6460,7 @@
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6475,13 @@
         <v>196748</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23" s="7">
         <v>495</v>
@@ -6508,13 +6490,13 @@
         <v>259513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M23" s="7">
         <v>774</v>
@@ -6523,18 +6505,18 @@
         <v>456260</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6546,13 +6528,13 @@
         <v>277223</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>315</v>
+        <v>144</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H24" s="7">
         <v>460</v>
@@ -6561,13 +6543,13 @@
         <v>275622</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>181</v>
+        <v>309</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M24" s="7">
         <v>831</v>
@@ -6576,13 +6558,13 @@
         <v>552845</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,7 +6585,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>317</v>
+        <v>136</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6618,7 +6600,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6633,7 +6615,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,7 +6636,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>317</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6669,7 +6651,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>311</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6684,7 +6666,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6699,13 +6681,13 @@
         <v>277223</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
         <v>460</v>
@@ -6714,13 +6696,13 @@
         <v>275622</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
         <v>831</v>
@@ -6729,18 +6711,18 @@
         <v>552845</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6752,13 +6734,13 @@
         <v>627754</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H28" s="7">
         <v>960</v>
@@ -6767,13 +6749,13 @@
         <v>804203</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M28" s="7">
         <v>1559</v>
@@ -6782,13 +6764,13 @@
         <v>1431957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6809,7 +6791,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6839,7 +6821,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6860,7 +6842,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6890,7 +6872,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6905,13 +6887,13 @@
         <v>627754</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H31" s="7">
         <v>960</v>
@@ -6920,13 +6902,13 @@
         <v>804203</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M31" s="7">
         <v>1559</v>
@@ -6935,18 +6917,18 @@
         <v>1431957</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6958,13 +6940,13 @@
         <v>859428</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H32" s="7">
         <v>1062</v>
@@ -6973,13 +6955,13 @@
         <v>868434</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M32" s="7">
         <v>1824</v>
@@ -6988,13 +6970,13 @@
         <v>1727862</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,7 +6997,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -7030,7 +7012,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -7045,7 +7027,7 @@
         <v>16</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,7 +7048,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7081,7 +7063,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -7096,7 +7078,7 @@
         <v>16</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,13 +7093,13 @@
         <v>859428</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H35" s="7">
         <v>1062</v>
@@ -7126,13 +7108,13 @@
         <v>868434</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M35" s="7">
         <v>1824</v>
@@ -7141,13 +7123,13 @@
         <v>1727862</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,13 +7146,13 @@
         <v>3385228</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H36" s="7">
         <v>5367</v>
@@ -7179,13 +7161,13 @@
         <v>3835581</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M36" s="7">
         <v>8743</v>
@@ -7194,13 +7176,13 @@
         <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,7 +7203,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7236,7 +7218,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7251,7 +7233,7 @@
         <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,7 +7254,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7287,7 +7269,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7302,7 +7284,7 @@
         <v>16</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7317,13 +7299,13 @@
         <v>3385228</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H39" s="7">
         <v>5367</v>
@@ -7332,13 +7314,13 @@
         <v>3835581</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M39" s="7">
         <v>8743</v>
@@ -7347,18 +7329,18 @@
         <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1411-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1411-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33BDA016-BDD2-4130-99ED-DA741E12935D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{336D4E9D-168A-4E7C-AD81-A22C5C2B1A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C1143065-06CD-430F-9FEB-1ED966DF108A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C75B2FA3-10E1-4516-B7C2-AD36E2DCC2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="280">
   <si>
     <t>Población con diagnóstico de infarto de miocardio en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -72,12 +72,66 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -93,9 +147,6 @@
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
     <t>2,28%</t>
   </si>
   <si>
@@ -120,18 +171,12 @@
     <t>97,72%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
     <t>98,77%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -180,429 +225,417 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>3,13%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de infarto de miocardio en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de infarto de miocardio en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
     <t>98,28%</t>
   </si>
   <si>
@@ -750,9 +783,6 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
     <t>97,03%</t>
   </si>
   <si>
@@ -766,9 +796,6 @@
   </si>
   <si>
     <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
   </si>
   <si>
     <t>99,42%</t>
@@ -1261,7 +1288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E60BC0-8798-4C36-9EFB-C245EA6EA51F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC74E8E8-FE2A-46DB-98DE-D47421C7F87A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1379,88 +1406,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6879</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4315</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="N4" s="7">
+        <v>11194</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>276</v>
+      </c>
+      <c r="D5" s="7">
+        <v>287859</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>252</v>
+      </c>
+      <c r="I5" s="7">
+        <v>282930</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>528</v>
+      </c>
+      <c r="N5" s="7">
+        <v>570789</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1469,48 +1508,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1522,13 +1567,13 @@
         <v>7306</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -1537,13 +1582,13 @@
         <v>5375</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -1552,19 +1597,19 @@
         <v>12680</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>465</v>
@@ -1573,13 +1618,13 @@
         <v>498221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>475</v>
@@ -1588,13 +1633,13 @@
         <v>518390</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="M8" s="7">
         <v>940</v>
@@ -1603,13 +1648,13 @@
         <v>1016612</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,7 +1710,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1677,13 +1722,13 @@
         <v>5072</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1692,13 +1737,13 @@
         <v>2109</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -1707,19 +1752,19 @@
         <v>7181</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>314</v>
@@ -1728,13 +1773,13 @@
         <v>318974</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>315</v>
@@ -1743,13 +1788,13 @@
         <v>338911</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
         <v>629</v>
@@ -1758,13 +1803,13 @@
         <v>657885</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,106 +1865,106 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>20925</v>
+        <v>14046</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>11370</v>
+        <v>7055</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>32295</v>
+        <v>21101</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>608</v>
+        <v>332</v>
       </c>
       <c r="D14" s="7">
-        <v>647795</v>
+        <v>359936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7">
-        <v>616</v>
+        <v>364</v>
       </c>
       <c r="I14" s="7">
-        <v>664826</v>
+        <v>381896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
-        <v>1224</v>
+        <v>696</v>
       </c>
       <c r="N14" s="7">
-        <v>1312621</v>
+        <v>741832</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,10 +1973,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1943,10 +1988,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1958,10 +2003,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1975,7 +2020,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1987,13 +2032,13 @@
         <v>8854</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -2002,13 +2047,13 @@
         <v>4092</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -2017,19 +2062,19 @@
         <v>12946</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>188</v>
@@ -2038,13 +2083,13 @@
         <v>203764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>208</v>
@@ -2053,13 +2098,13 @@
         <v>215499</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>396</v>
@@ -2068,13 +2113,13 @@
         <v>419263</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,7 +2175,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2142,13 +2187,13 @@
         <v>6233</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2157,13 +2202,13 @@
         <v>1087</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -2172,19 +2217,19 @@
         <v>7321</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>255</v>
@@ -2193,13 +2238,13 @@
         <v>267748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>267</v>
@@ -2208,13 +2253,13 @@
         <v>277009</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
         <v>522</v>
@@ -2223,13 +2268,13 @@
         <v>544756</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,7 +2330,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2297,13 +2342,13 @@
         <v>11136</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2312,13 +2357,13 @@
         <v>5424</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -2327,19 +2372,19 @@
         <v>16560</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>607</v>
@@ -2348,13 +2393,13 @@
         <v>651652</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7">
         <v>631</v>
@@ -2363,13 +2408,13 @@
         <v>688429</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>1238</v>
@@ -2378,13 +2423,13 @@
         <v>1340081</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,7 +2485,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2452,13 +2497,13 @@
         <v>11110</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2467,13 +2512,13 @@
         <v>8720</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -2482,19 +2527,19 @@
         <v>19829</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>708</v>
@@ -2503,13 +2548,13 @@
         <v>767988</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H26" s="7">
         <v>747</v>
@@ -2518,13 +2563,13 @@
         <v>812675</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>1455</v>
@@ -2533,13 +2578,13 @@
         <v>1580664</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,13 +2652,13 @@
         <v>70636</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -2622,13 +2667,13 @@
         <v>38176</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M28" s="7">
         <v>100</v>
@@ -2637,19 +2682,19 @@
         <v>108813</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3145</v>
@@ -2658,13 +2703,13 @@
         <v>3356143</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>3259</v>
@@ -2673,13 +2718,13 @@
         <v>3515740</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="M29" s="7">
         <v>6404</v>
@@ -2688,13 +2733,13 @@
         <v>6871881</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,7 +2795,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2774,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B5C68A-6074-4A85-9F5E-F0D2468AB5F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CF7A70-0FAB-4551-920E-41CB6C05BF16}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2791,7 +2836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2898,13 +2943,13 @@
         <v>4866</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2913,13 +2958,13 @@
         <v>4524</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2928,19 +2973,19 @@
         <v>9391</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>261</v>
@@ -2949,13 +2994,13 @@
         <v>288895</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>273</v>
@@ -2964,13 +3009,13 @@
         <v>284179</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>534</v>
@@ -2979,13 +3024,13 @@
         <v>573073</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,7 +3086,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3053,13 +3098,13 @@
         <v>12548</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3068,13 +3113,13 @@
         <v>7900</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -3083,19 +3128,19 @@
         <v>20448</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>463</v>
@@ -3104,13 +3149,13 @@
         <v>490027</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="H8" s="7">
         <v>477</v>
@@ -3119,13 +3164,13 @@
         <v>515184</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
         <v>940</v>
@@ -3134,13 +3179,13 @@
         <v>1005211</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,7 +3241,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3208,13 +3253,13 @@
         <v>4936</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3223,13 +3268,13 @@
         <v>902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3238,19 +3283,19 @@
         <v>5838</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>329</v>
@@ -3259,13 +3304,13 @@
         <v>313629</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>331</v>
@@ -3274,13 +3319,13 @@
         <v>335407</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
         <v>660</v>
@@ -3289,13 +3334,13 @@
         <v>649036</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,7 +3396,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3363,13 +3408,13 @@
         <v>6424</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3378,13 +3423,13 @@
         <v>974</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3393,19 +3438,19 @@
         <v>7398</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>347</v>
@@ -3414,13 +3459,13 @@
         <v>363540</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>357</v>
@@ -3429,13 +3474,13 @@
         <v>386309</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="M14" s="7">
         <v>704</v>
@@ -3444,13 +3489,13 @@
         <v>749849</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,7 +3551,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3518,13 +3563,13 @@
         <v>3725</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3533,13 +3578,13 @@
         <v>6988</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -3548,19 +3593,19 @@
         <v>10713</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>208</v>
@@ -3569,13 +3614,13 @@
         <v>207496</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>217</v>
@@ -3584,13 +3629,13 @@
         <v>211599</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>425</v>
@@ -3599,13 +3644,13 @@
         <v>419095</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,7 +3706,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3673,13 +3718,13 @@
         <v>5624</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -3688,13 +3733,13 @@
         <v>8950</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -3703,19 +3748,19 @@
         <v>14574</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>253</v>
@@ -3724,13 +3769,13 @@
         <v>257499</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -3739,13 +3784,13 @@
         <v>264165</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>508</v>
@@ -3754,13 +3799,13 @@
         <v>521664</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,7 +3861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3828,13 +3873,13 @@
         <v>10017</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3843,13 +3888,13 @@
         <v>4767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -3858,19 +3903,19 @@
         <v>14784</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>237</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>571</v>
@@ -3879,13 +3924,13 @@
         <v>646541</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>642</v>
@@ -3894,13 +3939,13 @@
         <v>686527</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M23" s="7">
         <v>1213</v>
@@ -3909,13 +3954,13 @@
         <v>1333068</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>243</v>
+        <v>70</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,7 +4016,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3983,13 +4028,13 @@
         <v>18634</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -3998,13 +4043,13 @@
         <v>9547</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -4013,19 +4058,19 @@
         <v>28181</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>732</v>
@@ -4034,13 +4079,13 @@
         <v>759949</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="H26" s="7">
         <v>747</v>
@@ -4049,13 +4094,13 @@
         <v>816620</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="M26" s="7">
         <v>1479</v>
@@ -4064,13 +4109,13 @@
         <v>1576569</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4183,13 @@
         <v>66775</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="H28" s="7">
         <v>39</v>
@@ -4153,13 +4198,13 @@
         <v>44551</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="M28" s="7">
         <v>106</v>
@@ -4168,19 +4213,19 @@
         <v>111325</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3164</v>
@@ -4189,13 +4234,13 @@
         <v>3327575</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>3299</v>
@@ -4204,13 +4249,13 @@
         <v>3499991</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M29" s="7">
         <v>6463</v>
@@ -4219,13 +4264,13 @@
         <v>6827567</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,7 +4326,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
